--- a/26. Recherche opérationnelle en Excel/06 - TRANSPORT - OPTIMISATION LOGISTIQUE INTERNATIONALE/01- Programme linéaire logistique traduit et analyse.xlsx
+++ b/26. Recherche opérationnelle en Excel/06 - TRANSPORT - OPTIMISATION LOGISTIQUE INTERNATIONALE/01- Programme linéaire logistique traduit et analyse.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="28">
   <si>
     <t>N. America</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t>Europe</t>
-  </si>
-  <si>
-    <t>Asia</t>
-  </si>
-  <si>
-    <t>Africa</t>
   </si>
   <si>
     <t>Decision Variables</t>
@@ -842,12 +836,12 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>360045</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>55245</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>398144</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>100964</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4539448" cy="1470146"/>
+    <xdr:ext cx="5103496" cy="3709092"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="TextBox 1">
@@ -861,8 +855,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7621905" y="11142345"/>
-          <a:ext cx="4539448" cy="1470146"/>
+          <a:off x="398144" y="10456544"/>
+          <a:ext cx="5103496" cy="3709092"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,7 +885,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" wrap="square" rtlCol="0" anchor="t">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -956,6 +950,193 @@
             </a:rPr>
             <a:t> ≥ 1 in Solver and rerun.</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" b="1"/>
+            <a:t>Obtention de la Figure 5-7 </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>1. Utiliser les données | Analyse | Solveur, résolvez le problème pour obtenir la Figure 5-7.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" b="1"/>
+            <a:t>Quelques scénarios alternatifs à essayer </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>1. Et si une usine devait être construite en Europe ? Dans ce cas ajouter le contrainte I16 ≥ 1 dans le solveur et réexécutez. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>2. Et si des usines devaient être construites sur tous les marchés ? Dans ce cas, nous devons ajouter contraintes I14:18 ≥ 1 dans Solver et relancer.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
           <a:endParaRPr lang="en-US" sz="1100" b="1"/>
         </a:p>
       </xdr:txBody>
@@ -1309,13 +1490,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1272540</xdr:colOff>
+      <xdr:colOff>1120140</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>87630</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>735330</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>59055</xdr:rowOff>
     </xdr:to>
@@ -1334,7 +1515,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1272540" y="6774180"/>
+          <a:off x="1120140" y="6774180"/>
           <a:ext cx="6076950" cy="3457575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1342,6 +1523,101 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7406640" y="11003280"/>
+          <a:ext cx="6400800" cy="2948940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>La solution passe par deux usines en Asie et une en Afrique, toutes de type haute capacité. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>L'usine asiatique approvisionnera l'Amérique du Nord, l'Europe et l'Asie elle-même, et l'usine africaine approvisionnera l'Amérique du Sud, l'Europe et l'Afrique. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t>Notez qu'il y a une petite sous-utilisation de capacité à l'usine africaine, mais toute la demande est satisfaite, pour un coût total de 23,2 millions de dollars.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR"/>
+            <a:t> Cela est dû à notre incapacité à construire des usines « fractionnées », c'est-à-dire à augmenter la capacité dans des unités plus petites. Si nous pouvions le faire, nous pourrions ignorer la contrainte d'entiers ( Voir la doc pdf pour plus d'infos)....</a:t>
+          </a:r>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1612,8 +1888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1627,7 +1903,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="71" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -1635,26 +1911,26 @@
     <row r="2" spans="1:21" ht="45.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="80" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="81"/>
       <c r="D2" s="81"/>
       <c r="E2" s="81"/>
       <c r="F2" s="81"/>
       <c r="G2" s="76" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H2" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="67" t="s">
         <v>15</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="79" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="67" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="67"/>
       <c r="N2" s="67"/>
@@ -1668,7 +1944,7 @@
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
@@ -1678,22 +1954,22 @@
         <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L3" s="68"/>
       <c r="M3" s="69"/>
@@ -1806,7 +2082,7 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B7" s="55">
         <v>115</v>
@@ -1839,7 +2115,7 @@
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B8" s="62">
         <v>142</v>
@@ -1872,7 +2148,7 @@
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B9" s="12">
         <v>12</v>
@@ -1906,7 +2182,7 @@
     </row>
     <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="73" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="74"/>
@@ -1919,20 +2195,20 @@
     <row r="12" spans="1:21" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="82" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="83"/>
       <c r="D12" s="83"/>
       <c r="E12" s="83"/>
       <c r="F12" s="83"/>
       <c r="G12" s="65" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L12" s="70"/>
       <c r="M12" s="70"/>
@@ -1944,7 +2220,7 @@
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>0</v>
@@ -1956,19 +2232,19 @@
         <v>2</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H13" s="23" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I13" s="24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -2063,7 +2339,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B17" s="25">
         <v>12</v>
@@ -2093,7 +2369,7 @@
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="35" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B18" s="36">
         <v>0</v>
@@ -2123,7 +2399,7 @@
     </row>
     <row r="20" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="75" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B20" s="72"/>
       <c r="C20" s="72"/>
@@ -2132,10 +2408,10 @@
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
@@ -2183,7 +2459,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B25" s="25">
         <f>G17*H7+H17*J7-SUM(B17:F17)</f>
@@ -2196,7 +2472,7 @@
     </row>
     <row r="26" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B26" s="36">
         <f>G18*H8+H18*J8-SUM(B18:F18)</f>
@@ -2219,15 +2495,15 @@
         <v>2</v>
       </c>
       <c r="E27" s="47" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F27" s="48" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B28" s="52">
         <f>B9-SUM(B14:B18)</f>
@@ -2252,14 +2528,14 @@
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B30" s="72"/>
       <c r="C30" s="72"/>
     </row>
     <row r="31" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="50">
         <f>SUMPRODUCT(B14:F18,B4:F8)+SUMPRODUCT(G14:G18,G4:G8)+SUMPRODUCT(H14:H18,I4:I8)</f>
